--- a/SRS Document/K15T01_Team1_SRS/K15T01_Team1_MiniProject-feature.xlsx
+++ b/SRS Document/K15T01_Team1_SRS/K15T01_Team1_MiniProject-feature.xlsx
@@ -245,9 +245,6 @@
     <t>Người sử dụng hệ thống</t>
   </si>
   <si>
-    <t>Tăng tính linh hoạt cho hệ thống khi người dùng muốn thay đổi mật khẩu hoặc nhà sách có các chính sách thay đổi mật khẩu định kì</t>
-  </si>
-  <si>
     <t>Tăng tính bảo mật và linh hoạt cho hệ thống</t>
   </si>
   <si>
@@ -752,6 +749,9 @@
   </si>
   <si>
     <t>MS-09</t>
+  </si>
+  <si>
+    <t>Người dùng thực hiện thay đổi mật khẩu khi cần hoặc nhà sách có chính sách thay đổi mật khẩu định kì</t>
   </si>
 </sst>
 </file>
@@ -998,25 +998,43 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1045,24 +1063,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1368,7 +1368,7 @@
   <dimension ref="A2:K69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I2"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1386,36 +1386,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11" ht="27" x14ac:dyDescent="0.35">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
     </row>
     <row r="4" spans="1:11" s="2" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>73</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>74</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>0</v>
@@ -1424,12 +1424,12 @@
         <v>1</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B5" s="7">
         <v>2</v>
@@ -1444,14 +1444,14 @@
       <c r="F5" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="42" t="s">
         <v>66</v>
       </c>
       <c r="H5" s="22" t="s">
         <v>63</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" s="12"/>
     </row>
@@ -1472,15 +1472,15 @@
       <c r="F6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="52"/>
+      <c r="G6" s="43"/>
       <c r="H6" s="22" t="s">
         <v>63</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="93.75" x14ac:dyDescent="0.3">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="75" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>43</v>
       </c>
@@ -1495,28 +1495,28 @@
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="G7" s="53"/>
-      <c r="H7" s="16" t="s">
-        <v>68</v>
-      </c>
       <c r="I7" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:11" s="3" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
+      <c r="A8" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="33"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="33"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="40"/>
     </row>
     <row r="9" spans="1:11" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
@@ -1528,23 +1528,23 @@
       <c r="C9" s="8">
         <v>1</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="34" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>211</v>
-      </c>
       <c r="F9" s="13" t="s">
-        <v>219</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>77</v>
+        <v>218</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>76</v>
       </c>
       <c r="H9" s="23" t="s">
         <v>63</v>
       </c>
       <c r="I9" s="29" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="56.25" x14ac:dyDescent="0.3">
@@ -1557,19 +1557,19 @@
       <c r="C10" s="8">
         <v>1</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="35"/>
       <c r="E10" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="G10" s="52"/>
+        <v>219</v>
+      </c>
+      <c r="G10" s="43"/>
       <c r="H10" s="23" t="s">
         <v>63</v>
       </c>
       <c r="I10" s="29" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="56.25" x14ac:dyDescent="0.3">
@@ -1582,19 +1582,19 @@
       <c r="C11" s="8">
         <v>2</v>
       </c>
-      <c r="D11" s="36"/>
+      <c r="D11" s="35"/>
       <c r="E11" s="11" t="s">
         <v>7</v>
       </c>
       <c r="F11" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="52"/>
+      <c r="G11" s="43"/>
       <c r="H11" s="23" t="s">
         <v>63</v>
       </c>
       <c r="I11" s="29" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="37.5" x14ac:dyDescent="0.3">
@@ -1614,12 +1614,12 @@
       <c r="F12" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G12" s="52"/>
+      <c r="G12" s="43"/>
       <c r="H12" s="21" t="s">
         <v>49</v>
       </c>
       <c r="I12" s="29" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="56.25" x14ac:dyDescent="0.3">
@@ -1637,19 +1637,19 @@
       </c>
       <c r="E13" s="6"/>
       <c r="F13" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="52"/>
+        <v>75</v>
+      </c>
+      <c r="G13" s="43"/>
       <c r="H13" s="22" t="s">
         <v>63</v>
       </c>
       <c r="I13" s="29" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B14" s="7">
         <v>2</v>
@@ -1658,23 +1658,23 @@
         <v>1</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="52"/>
+        <v>77</v>
+      </c>
+      <c r="G14" s="43"/>
       <c r="H14" s="23" t="s">
         <v>63</v>
       </c>
       <c r="I14" s="29" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="75" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B15" s="7">
         <v>2</v>
@@ -1689,26 +1689,26 @@
       <c r="F15" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G15" s="53"/>
+      <c r="G15" s="44"/>
       <c r="H15" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="39" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
-        <v>207</v>
-      </c>
-      <c r="B16" s="33"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
+      <c r="A16" s="40" t="s">
+        <v>206</v>
+      </c>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
     </row>
     <row r="17" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
@@ -1720,23 +1720,23 @@
       <c r="C17" s="8">
         <v>1</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>81</v>
       </c>
       <c r="F17" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G17" s="51" t="s">
+      <c r="G17" s="42" t="s">
         <v>50</v>
       </c>
       <c r="H17" s="21" t="s">
         <v>57</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
@@ -1749,19 +1749,19 @@
       <c r="C18" s="8">
         <v>1</v>
       </c>
-      <c r="D18" s="36"/>
+      <c r="D18" s="35"/>
       <c r="E18" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F18" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="52"/>
+      <c r="G18" s="43"/>
       <c r="H18" s="21" t="s">
         <v>57</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
@@ -1774,19 +1774,19 @@
       <c r="C19" s="8">
         <v>1</v>
       </c>
-      <c r="D19" s="36"/>
+      <c r="D19" s="35"/>
       <c r="E19" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F19" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G19" s="52"/>
+      <c r="G19" s="43"/>
       <c r="H19" s="21" t="s">
         <v>57</v>
       </c>
       <c r="I19" s="18" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
@@ -1799,19 +1799,19 @@
       <c r="C20" s="8">
         <v>1</v>
       </c>
-      <c r="D20" s="36"/>
+      <c r="D20" s="35"/>
       <c r="E20" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F20" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G20" s="52"/>
+      <c r="G20" s="43"/>
       <c r="H20" s="21" t="s">
         <v>57</v>
       </c>
       <c r="I20" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
@@ -1824,19 +1824,19 @@
       <c r="C21" s="8">
         <v>2</v>
       </c>
-      <c r="D21" s="36"/>
+      <c r="D21" s="35"/>
       <c r="E21" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="52"/>
+      <c r="G21" s="43"/>
       <c r="H21" s="21" t="s">
         <v>57</v>
       </c>
       <c r="I21" s="18" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
@@ -1851,22 +1851,22 @@
       </c>
       <c r="D22" s="37"/>
       <c r="E22" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F22" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G22" s="52"/>
+      <c r="G22" s="43"/>
       <c r="H22" s="21" t="s">
         <v>57</v>
       </c>
       <c r="I22" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" s="7">
         <v>1</v>
@@ -1874,26 +1874,26 @@
       <c r="C23" s="8">
         <v>1</v>
       </c>
-      <c r="D23" s="35" t="s">
-        <v>91</v>
+      <c r="D23" s="34" t="s">
+        <v>90</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F23" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="52"/>
+      <c r="G23" s="43"/>
       <c r="H23" s="21" t="s">
         <v>57</v>
       </c>
       <c r="I23" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B24" s="7">
         <v>1</v>
@@ -1901,24 +1901,24 @@
       <c r="C24" s="8">
         <v>1</v>
       </c>
-      <c r="D24" s="36"/>
+      <c r="D24" s="35"/>
       <c r="E24" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F24" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G24" s="52"/>
+      <c r="G24" s="43"/>
       <c r="H24" s="21" t="s">
         <v>57</v>
       </c>
       <c r="I24" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B25" s="7">
         <v>1</v>
@@ -1926,24 +1926,24 @@
       <c r="C25" s="8">
         <v>1</v>
       </c>
-      <c r="D25" s="36"/>
+      <c r="D25" s="35"/>
       <c r="E25" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F25" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G25" s="52"/>
+      <c r="G25" s="43"/>
       <c r="H25" s="21" t="s">
         <v>57</v>
       </c>
       <c r="I25" s="18" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" s="7">
         <v>1</v>
@@ -1951,24 +1951,24 @@
       <c r="C26" s="8">
         <v>1</v>
       </c>
-      <c r="D26" s="36"/>
+      <c r="D26" s="35"/>
       <c r="E26" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F26" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G26" s="52"/>
+      <c r="G26" s="43"/>
       <c r="H26" s="21" t="s">
         <v>57</v>
       </c>
       <c r="I26" s="18" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B27" s="7">
         <v>1</v>
@@ -1976,24 +1976,24 @@
       <c r="C27" s="8">
         <v>2</v>
       </c>
-      <c r="D27" s="36"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F27" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="43"/>
       <c r="H27" s="21" t="s">
         <v>57</v>
       </c>
       <c r="I27" s="18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B28" s="7">
         <v>1</v>
@@ -2003,22 +2003,22 @@
       </c>
       <c r="D28" s="37"/>
       <c r="E28" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="52"/>
+      <c r="G28" s="43"/>
       <c r="H28" s="21" t="s">
         <v>57</v>
       </c>
       <c r="I28" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B29" s="7">
         <v>1</v>
@@ -2026,26 +2026,26 @@
       <c r="C29" s="8">
         <v>1</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E29" s="6" t="s">
         <v>92</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="F29" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="52"/>
+      <c r="G29" s="43"/>
       <c r="H29" s="21" t="s">
         <v>57</v>
       </c>
       <c r="I29" s="18" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B30" s="7">
         <v>1</v>
@@ -2053,24 +2053,24 @@
       <c r="C30" s="8">
         <v>1</v>
       </c>
-      <c r="D30" s="36"/>
+      <c r="D30" s="35"/>
       <c r="E30" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F30" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="52"/>
+      <c r="G30" s="43"/>
       <c r="H30" s="21" t="s">
         <v>57</v>
       </c>
       <c r="I30" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B31" s="7">
         <v>1</v>
@@ -2078,24 +2078,24 @@
       <c r="C31" s="8">
         <v>1</v>
       </c>
-      <c r="D31" s="36"/>
+      <c r="D31" s="35"/>
       <c r="E31" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F31" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G31" s="52"/>
+      <c r="G31" s="43"/>
       <c r="H31" s="21" t="s">
         <v>57</v>
       </c>
       <c r="I31" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B32" s="7">
         <v>1</v>
@@ -2105,22 +2105,22 @@
       </c>
       <c r="D32" s="37"/>
       <c r="E32" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F32" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G32" s="52"/>
+      <c r="G32" s="43"/>
       <c r="H32" s="21" t="s">
         <v>57</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B33" s="7">
         <v>1</v>
@@ -2128,26 +2128,26 @@
       <c r="C33" s="8">
         <v>1</v>
       </c>
-      <c r="D33" s="35" t="s">
-        <v>101</v>
+      <c r="D33" s="34" t="s">
+        <v>100</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F33" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G33" s="52"/>
+      <c r="G33" s="43"/>
       <c r="H33" s="21" t="s">
         <v>57</v>
       </c>
       <c r="I33" s="18" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B34" s="7">
         <v>1</v>
@@ -2155,24 +2155,24 @@
       <c r="C34" s="8">
         <v>1</v>
       </c>
-      <c r="D34" s="36"/>
+      <c r="D34" s="35"/>
       <c r="E34" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F34" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="52"/>
+      <c r="G34" s="43"/>
       <c r="H34" s="21" t="s">
         <v>57</v>
       </c>
       <c r="I34" s="18" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B35" s="7">
         <v>1</v>
@@ -2180,24 +2180,24 @@
       <c r="C35" s="8">
         <v>1</v>
       </c>
-      <c r="D35" s="36"/>
+      <c r="D35" s="35"/>
       <c r="E35" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="G35" s="52"/>
+      <c r="G35" s="43"/>
       <c r="H35" s="21" t="s">
         <v>57</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B36" s="7">
         <v>1</v>
@@ -2207,31 +2207,31 @@
       </c>
       <c r="D36" s="37"/>
       <c r="E36" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F36" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="53"/>
+      <c r="G36" s="44"/>
       <c r="H36" s="21" t="s">
         <v>57</v>
       </c>
       <c r="I36" s="18" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="33" t="s">
+      <c r="A37" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="33"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="33"/>
-      <c r="I37" s="33"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="40"/>
+      <c r="D37" s="40"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="40"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="40"/>
+      <c r="I37" s="40"/>
     </row>
     <row r="38" spans="1:9" ht="93.75" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
@@ -2243,26 +2243,26 @@
       <c r="C38" s="8">
         <v>1</v>
       </c>
-      <c r="D38" s="34" t="s">
-        <v>224</v>
+      <c r="D38" s="36" t="s">
+        <v>223</v>
       </c>
       <c r="E38" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="F38" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="G38" s="42" t="s">
         <v>128</v>
       </c>
-      <c r="G38" s="51" t="s">
+      <c r="H38" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="H38" s="21" t="s">
-        <v>130</v>
-      </c>
       <c r="I38" s="18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="75" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="56.25" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>29</v>
       </c>
@@ -2272,19 +2272,19 @@
       <c r="C39" s="8">
         <v>1</v>
       </c>
-      <c r="D39" s="34"/>
+      <c r="D39" s="36"/>
       <c r="E39" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="G39" s="52"/>
+        <v>135</v>
+      </c>
+      <c r="G39" s="43"/>
       <c r="H39" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I39" s="18" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="75" x14ac:dyDescent="0.3">
@@ -2297,19 +2297,19 @@
       <c r="C40" s="8">
         <v>1</v>
       </c>
-      <c r="D40" s="34"/>
+      <c r="D40" s="36"/>
       <c r="E40" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="F40" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="G40" s="44"/>
+      <c r="H40" s="21" t="s">
         <v>133</v>
       </c>
-      <c r="G40" s="53"/>
-      <c r="H40" s="21" t="s">
-        <v>134</v>
-      </c>
       <c r="I40" s="18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2322,14 +2322,14 @@
       <c r="C41" s="8">
         <v>1</v>
       </c>
-      <c r="D41" s="35" t="s">
+      <c r="D41" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="E41" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="E41" s="6" t="s">
-        <v>209</v>
-      </c>
       <c r="F41" s="17" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G41" s="38" t="s">
         <v>17</v>
@@ -2338,7 +2338,7 @@
         <v>60</v>
       </c>
       <c r="I41" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="42" spans="1:9" ht="112.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2356,42 +2356,42 @@
         <v>19</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="G42" s="50"/>
+        <v>136</v>
+      </c>
+      <c r="G42" s="45"/>
       <c r="H42" s="39"/>
       <c r="I42" s="18" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="B43" s="7">
+        <v>1</v>
+      </c>
+      <c r="C43" s="8">
+        <v>1</v>
+      </c>
+      <c r="D43" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B43" s="7">
-        <v>1</v>
-      </c>
-      <c r="C43" s="8">
-        <v>1</v>
-      </c>
-      <c r="D43" s="40" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="F43" s="43" t="s">
+      <c r="F43" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="G43" s="50"/>
-      <c r="H43" s="46" t="s">
+      <c r="G43" s="45"/>
+      <c r="H43" s="52" t="s">
         <v>59</v>
       </c>
       <c r="I43" s="18"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B44" s="7">
         <v>1</v>
@@ -2399,18 +2399,18 @@
       <c r="C44" s="8">
         <v>1</v>
       </c>
-      <c r="D44" s="41"/>
+      <c r="D44" s="47"/>
       <c r="E44" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="F44" s="44"/>
-      <c r="G44" s="50"/>
-      <c r="H44" s="47"/>
+        <v>226</v>
+      </c>
+      <c r="F44" s="50"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="53"/>
       <c r="I44" s="18"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B45" s="7">
         <v>1</v>
@@ -2418,18 +2418,18 @@
       <c r="C45" s="8">
         <v>1</v>
       </c>
-      <c r="D45" s="41"/>
+      <c r="D45" s="47"/>
       <c r="E45" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="F45" s="44"/>
-      <c r="G45" s="50"/>
-      <c r="H45" s="47"/>
+        <v>227</v>
+      </c>
+      <c r="F45" s="50"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="53"/>
       <c r="I45" s="18"/>
     </row>
     <row r="46" spans="1:9" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B46" s="26">
         <v>1</v>
@@ -2437,29 +2437,29 @@
       <c r="C46" s="27">
         <v>1</v>
       </c>
-      <c r="D46" s="42"/>
+      <c r="D46" s="48"/>
       <c r="E46" s="25" t="s">
-        <v>229</v>
-      </c>
-      <c r="F46" s="45"/>
+        <v>228</v>
+      </c>
+      <c r="F46" s="51"/>
       <c r="G46" s="39"/>
-      <c r="H46" s="48"/>
+      <c r="H46" s="54"/>
       <c r="I46" s="30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="3" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="33" t="s">
+      <c r="A47" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B47" s="33"/>
-      <c r="C47" s="33"/>
-      <c r="D47" s="33"/>
-      <c r="E47" s="33"/>
-      <c r="F47" s="33"/>
-      <c r="G47" s="33"/>
-      <c r="H47" s="33"/>
-      <c r="I47" s="33"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="40"/>
+      <c r="D47" s="40"/>
+      <c r="E47" s="40"/>
+      <c r="F47" s="40"/>
+      <c r="G47" s="40"/>
+      <c r="H47" s="40"/>
+      <c r="I47" s="40"/>
     </row>
     <row r="48" spans="1:9" ht="93.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
@@ -2471,28 +2471,28 @@
       <c r="C48" s="6">
         <v>1</v>
       </c>
-      <c r="D48" s="35" t="s">
+      <c r="D48" s="34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E48" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="E48" s="6" t="s">
-        <v>117</v>
-      </c>
       <c r="F48" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G48" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="G48" s="42" t="s">
         <v>62</v>
       </c>
       <c r="H48" s="38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B49" s="7">
         <v>2</v>
@@ -2500,22 +2500,22 @@
       <c r="C49" s="6">
         <v>2</v>
       </c>
-      <c r="D49" s="36"/>
+      <c r="D49" s="35"/>
       <c r="E49" s="6" t="s">
         <v>44</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="G49" s="53"/>
+        <v>146</v>
+      </c>
+      <c r="G49" s="44"/>
       <c r="H49" s="39"/>
       <c r="I49" s="21" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B50" s="7">
         <v>2</v>
@@ -2523,23 +2523,23 @@
       <c r="C50" s="6">
         <v>1</v>
       </c>
-      <c r="D50" s="34" t="s">
-        <v>126</v>
+      <c r="D50" s="36" t="s">
+        <v>125</v>
       </c>
       <c r="E50" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G50" s="51" t="s">
+        <v>145</v>
+      </c>
+      <c r="G50" s="42" t="s">
         <v>61</v>
       </c>
       <c r="H50" s="38" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I50" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="51" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -2552,22 +2552,22 @@
       <c r="C51" s="6">
         <v>2</v>
       </c>
-      <c r="D51" s="34"/>
+      <c r="D51" s="36"/>
       <c r="E51" s="6" t="s">
         <v>22</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G51" s="52"/>
+        <v>145</v>
+      </c>
+      <c r="G51" s="43"/>
       <c r="H51" s="39"/>
       <c r="I51" s="21" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="52" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B52" s="7">
         <v>2</v>
@@ -2576,23 +2576,23 @@
         <v>1</v>
       </c>
       <c r="D52" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E52" s="6"/>
       <c r="F52" s="9" t="s">
-        <v>146</v>
-      </c>
-      <c r="G52" s="52"/>
+        <v>145</v>
+      </c>
+      <c r="G52" s="43"/>
       <c r="H52" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I52" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B53" s="7">
         <v>2</v>
@@ -2601,20 +2601,20 @@
         <v>1</v>
       </c>
       <c r="D53" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E53" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="F53" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G53" s="44"/>
+      <c r="H53" s="21" t="s">
         <v>147</v>
       </c>
-      <c r="G53" s="53"/>
-      <c r="H53" s="21" t="s">
-        <v>148</v>
-      </c>
       <c r="I53" s="21" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="54" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
@@ -2627,23 +2627,23 @@
       <c r="C54" s="6">
         <v>1</v>
       </c>
-      <c r="D54" s="35" t="s">
+      <c r="D54" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="E54" s="6" t="s">
-        <v>122</v>
-      </c>
       <c r="F54" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="G54" s="51" t="s">
+        <v>149</v>
+      </c>
+      <c r="G54" s="42" t="s">
         <v>62</v>
       </c>
       <c r="H54" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I54" s="21" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
@@ -2658,22 +2658,22 @@
       </c>
       <c r="D55" s="37"/>
       <c r="E55" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G55" s="52"/>
+        <v>152</v>
+      </c>
+      <c r="G55" s="43"/>
       <c r="H55" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="56" spans="1:9" ht="75" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B56" s="7">
         <v>2</v>
@@ -2681,21 +2681,21 @@
       <c r="C56" s="6">
         <v>1</v>
       </c>
-      <c r="D56" s="35" t="s">
+      <c r="D56" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E56" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="F56" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="G56" s="52"/>
+        <v>148</v>
+      </c>
+      <c r="G56" s="43"/>
       <c r="H56" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
@@ -2708,24 +2708,24 @@
       <c r="C57" s="6">
         <v>2</v>
       </c>
-      <c r="D57" s="36"/>
+      <c r="D57" s="35"/>
       <c r="E57" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G57" s="43"/>
+      <c r="H57" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="I57" s="21" t="s">
         <v>222</v>
-      </c>
-      <c r="F57" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="G57" s="52"/>
-      <c r="H57" s="21" t="s">
-        <v>148</v>
-      </c>
-      <c r="I57" s="21" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="37.5" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B58" s="7">
         <v>2</v>
@@ -2735,31 +2735,31 @@
       </c>
       <c r="D58" s="37"/>
       <c r="E58" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="G58" s="53"/>
+        <v>149</v>
+      </c>
+      <c r="G58" s="44"/>
       <c r="H58" s="21" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I58" s="21" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="33" t="s">
-        <v>140</v>
-      </c>
-      <c r="B59" s="33"/>
-      <c r="C59" s="33"/>
-      <c r="D59" s="33"/>
-      <c r="E59" s="33"/>
-      <c r="F59" s="33"/>
-      <c r="G59" s="33"/>
-      <c r="H59" s="33"/>
-      <c r="I59" s="33"/>
+      <c r="A59" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="B59" s="40"/>
+      <c r="C59" s="40"/>
+      <c r="D59" s="40"/>
+      <c r="E59" s="40"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
     </row>
     <row r="60" spans="1:9" ht="75" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
@@ -2778,16 +2778,16 @@
         <v>34</v>
       </c>
       <c r="F60" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G60" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H60" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I60" s="21" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="61" spans="1:9" ht="75" x14ac:dyDescent="0.3">
@@ -2807,16 +2807,16 @@
         <v>36</v>
       </c>
       <c r="F61" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G61" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="H61" s="21" t="s">
         <v>142</v>
       </c>
-      <c r="H61" s="21" t="s">
-        <v>143</v>
-      </c>
       <c r="I61" s="21" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
@@ -2839,6 +2839,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A59:I59"/>
+    <mergeCell ref="D38:D40"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="D23:D28"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="D33:D36"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="D56:D58"/>
+    <mergeCell ref="H41:H42"/>
+    <mergeCell ref="D43:D46"/>
+    <mergeCell ref="F43:F46"/>
+    <mergeCell ref="H43:H46"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="G50:G53"/>
+    <mergeCell ref="G54:G58"/>
     <mergeCell ref="A2:I2"/>
     <mergeCell ref="D48:D49"/>
     <mergeCell ref="D50:D51"/>
@@ -2855,21 +2870,6 @@
     <mergeCell ref="G17:G36"/>
     <mergeCell ref="G38:G40"/>
     <mergeCell ref="G41:G46"/>
-    <mergeCell ref="A59:I59"/>
-    <mergeCell ref="D38:D40"/>
-    <mergeCell ref="D17:D22"/>
-    <mergeCell ref="D23:D28"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="D33:D36"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="D56:D58"/>
-    <mergeCell ref="H41:H42"/>
-    <mergeCell ref="D43:D46"/>
-    <mergeCell ref="F43:F46"/>
-    <mergeCell ref="H43:H46"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="G50:G53"/>
-    <mergeCell ref="G54:G58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
